--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H2">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I2">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J2">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N2">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O2">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P2">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q2">
-        <v>0.8634630526504998</v>
+        <v>0.482407893318</v>
       </c>
       <c r="R2">
-        <v>3.453852210601999</v>
+        <v>1.929631573272</v>
       </c>
       <c r="S2">
-        <v>0.04027644584150451</v>
+        <v>0.03618769091480931</v>
       </c>
       <c r="T2">
-        <v>0.02351562964799541</v>
+        <v>0.02398578170568137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H3">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I3">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J3">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.741764</v>
       </c>
       <c r="O3">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P3">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q3">
-        <v>0.2207595558093333</v>
+        <v>0.093256970716</v>
       </c>
       <c r="R3">
-        <v>1.324557334856</v>
+        <v>0.559541824296</v>
       </c>
       <c r="S3">
-        <v>0.01029738361850688</v>
+        <v>0.006995645134888818</v>
       </c>
       <c r="T3">
-        <v>0.009018278094933467</v>
+        <v>0.006955238626203154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H4">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I4">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J4">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N4">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O4">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P4">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q4">
-        <v>0.01623021674033334</v>
+        <v>0.005114678218000001</v>
       </c>
       <c r="R4">
-        <v>0.097381300442</v>
+        <v>0.030688069308</v>
       </c>
       <c r="S4">
-        <v>0.0007570624400561455</v>
+        <v>0.000383676131849034</v>
       </c>
       <c r="T4">
-        <v>0.0006630227514671523</v>
+        <v>0.0003814600370278826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H5">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I5">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J5">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N5">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O5">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P5">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q5">
-        <v>0.142287089477</v>
+        <v>0.07315840753649999</v>
       </c>
       <c r="R5">
-        <v>0.5691483579079999</v>
+        <v>0.292633630146</v>
       </c>
       <c r="S5">
-        <v>0.006637016182307147</v>
+        <v>0.005487957134244791</v>
       </c>
       <c r="T5">
-        <v>0.003875059262305982</v>
+        <v>0.003637505972459362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H6">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I6">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J6">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N6">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O6">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P6">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q6">
-        <v>0.6194940251116666</v>
+        <v>0.008774083071</v>
       </c>
       <c r="R6">
-        <v>3.71696415067</v>
+        <v>0.052644498426</v>
       </c>
       <c r="S6">
-        <v>0.02889645072242018</v>
+        <v>0.0006581853461193387</v>
       </c>
       <c r="T6">
-        <v>0.02530703314800974</v>
+        <v>0.0006543836993245188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.051977</v>
+        <v>0.021957</v>
       </c>
       <c r="H7">
-        <v>0.103954</v>
+        <v>0.043914</v>
       </c>
       <c r="I7">
-        <v>0.08717138685919197</v>
+        <v>0.0499528689286042</v>
       </c>
       <c r="J7">
-        <v>0.06264791299175514</v>
+        <v>0.03585269972935351</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N7">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O7">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P7">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q7">
-        <v>0.006582194023333331</v>
+        <v>0.003195563228</v>
       </c>
       <c r="R7">
-        <v>0.03949316413999999</v>
+        <v>0.019173379368</v>
       </c>
       <c r="S7">
-        <v>0.0003070280543970953</v>
+        <v>0.0002397142666929066</v>
       </c>
       <c r="T7">
-        <v>0.0002688900870433774</v>
+        <v>0.000238329688657223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J8">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N8">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O8">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P8">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q8">
-        <v>5.238932813590665</v>
+        <v>6.928698804837333</v>
       </c>
       <c r="R8">
-        <v>31.43359688154399</v>
+        <v>41.572192829024</v>
       </c>
       <c r="S8">
-        <v>0.2443713058551366</v>
+        <v>0.5197543702419898</v>
       </c>
       <c r="T8">
-        <v>0.2140163439830376</v>
+        <v>0.5167522940830869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J9">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.741764</v>
       </c>
       <c r="O9">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P9">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q9">
-        <v>1.339425557692444</v>
+        <v>1.339425557692445</v>
       </c>
       <c r="R9">
         <v>12.054830019232</v>
       </c>
       <c r="S9">
-        <v>0.06247783361144314</v>
+        <v>0.1004766272620226</v>
       </c>
       <c r="T9">
-        <v>0.08207557848932619</v>
+        <v>0.1498444186680168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J10">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N10">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O10">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P10">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q10">
-        <v>0.09847441044711111</v>
+        <v>0.07346078981511112</v>
       </c>
       <c r="R10">
-        <v>0.886269694024</v>
+        <v>0.6611471083360001</v>
       </c>
       <c r="S10">
-        <v>0.004593363024593175</v>
+        <v>0.00551064025487375</v>
       </c>
       <c r="T10">
-        <v>0.006034186937395918</v>
+        <v>0.008218216594061925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J11">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N11">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O11">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P11">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q11">
-        <v>0.8633056153626666</v>
+        <v>1.050755134572</v>
       </c>
       <c r="R11">
-        <v>5.179833692176</v>
+        <v>6.304530807432</v>
       </c>
       <c r="S11">
-        <v>0.04026910214060452</v>
+        <v>0.07882209757288314</v>
       </c>
       <c r="T11">
-        <v>0.03526701298032343</v>
+        <v>0.07836682494129737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J12">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N12">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O12">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P12">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q12">
-        <v>3.758687260582222</v>
+        <v>0.126019867688</v>
       </c>
       <c r="R12">
-        <v>33.82818534523999</v>
+        <v>1.134178809192</v>
       </c>
       <c r="S12">
-        <v>0.1753248890283078</v>
+        <v>0.009453344533092755</v>
       </c>
       <c r="T12">
-        <v>0.2303199528342752</v>
+        <v>0.01409811370693937</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3153626666666666</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.9460879999999999</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.5288993404187698</v>
+        <v>0.717460033382297</v>
       </c>
       <c r="J13">
-        <v>0.5701602507507517</v>
+        <v>0.7724144687695178</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N13">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O13">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P13">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q13">
-        <v>0.03993647689777777</v>
+        <v>0.04589704153955555</v>
       </c>
       <c r="R13">
-        <v>0.3594282920799999</v>
+        <v>0.413073373856</v>
       </c>
       <c r="S13">
-        <v>0.00186284675868454</v>
+        <v>0.003442953517434966</v>
       </c>
       <c r="T13">
-        <v>0.002447175526393356</v>
+        <v>0.00513460077611547</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H14">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I14">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J14">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N14">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O14">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P14">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q14">
-        <v>0.2359017097688333</v>
+        <v>0.08638829696799999</v>
       </c>
       <c r="R14">
-        <v>1.415410258613</v>
+        <v>0.5183297818079999</v>
       </c>
       <c r="S14">
-        <v>0.01100369310332092</v>
+        <v>0.006480393527213652</v>
       </c>
       <c r="T14">
-        <v>0.009636852248439239</v>
+        <v>0.006442963086947612</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H15">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I15">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J15">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.741764</v>
       </c>
       <c r="O15">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P15">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q15">
-        <v>0.06031243201822222</v>
+        <v>0.01670020534933333</v>
       </c>
       <c r="R15">
-        <v>0.5428118881639999</v>
+        <v>0.150301848144</v>
       </c>
       <c r="S15">
-        <v>0.002813288182157569</v>
+        <v>0.001252761154546743</v>
       </c>
       <c r="T15">
-        <v>0.003695746821885263</v>
+        <v>0.001868287899865474</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H16">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I16">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J16">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N16">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O16">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P16">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q16">
-        <v>0.004434162952555556</v>
+        <v>0.0009159227013333333</v>
       </c>
       <c r="R16">
-        <v>0.039907466573</v>
+        <v>0.008243304312</v>
       </c>
       <c r="S16">
-        <v>0.0002068326183301066</v>
+        <v>6.87076809414037E-05</v>
       </c>
       <c r="T16">
-        <v>0.000271710874379554</v>
+        <v>0.0001024662430382316</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H17">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I17">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J17">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N17">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O17">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P17">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q17">
-        <v>0.03887342670033334</v>
+        <v>0.013101009174</v>
       </c>
       <c r="R17">
-        <v>0.233240560202</v>
+        <v>0.07860605504399999</v>
       </c>
       <c r="S17">
-        <v>0.00181326052152854</v>
+        <v>0.0009827684771075518</v>
       </c>
       <c r="T17">
-        <v>0.001588023545351763</v>
+        <v>0.0009770920538126936</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H18">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I18">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J18">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N18">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O18">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P18">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q18">
-        <v>0.1692483532061111</v>
+        <v>0.001571238996</v>
       </c>
       <c r="R18">
-        <v>1.523235178855</v>
+        <v>0.014141150964</v>
       </c>
       <c r="S18">
-        <v>0.007894630940773946</v>
+        <v>0.0001178660464062139</v>
       </c>
       <c r="T18">
-        <v>0.0103709806177575</v>
+        <v>0.0001757778867156721</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01420033333333333</v>
+        <v>0.003932</v>
       </c>
       <c r="H19">
-        <v>0.042601</v>
+        <v>0.011796</v>
       </c>
       <c r="I19">
-        <v>0.02381558671199721</v>
+        <v>0.008945424266852105</v>
       </c>
       <c r="J19">
-        <v>0.0256735069488597</v>
+        <v>0.009630606321616204</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N19">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O19">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P19">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q19">
-        <v>0.001798282878888889</v>
+        <v>0.0005722527946666665</v>
       </c>
       <c r="R19">
-        <v>0.01618454591</v>
+        <v>0.005150275152</v>
       </c>
       <c r="S19">
-        <v>8.388134588613334E-05</v>
+        <v>4.292738063654E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001101928410463755</v>
+        <v>6.401915123652142E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H20">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I20">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J20">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N20">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O20">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P20">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q20">
-        <v>1.28700466257125</v>
+        <v>1.578827418214</v>
       </c>
       <c r="R20">
-        <v>5.148018650285</v>
+        <v>6.315309672856</v>
       </c>
       <c r="S20">
-        <v>0.06003264810312173</v>
+        <v>0.1184352897403612</v>
       </c>
       <c r="T20">
-        <v>0.03505039955950372</v>
+        <v>0.07850080881504617</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H21">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I21">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J21">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.741764</v>
       </c>
       <c r="O21">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P21">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q21">
-        <v>0.3290454371633333</v>
+        <v>0.3052119676013333</v>
       </c>
       <c r="R21">
-        <v>1.97427262298</v>
+        <v>1.831271805608</v>
       </c>
       <c r="S21">
-        <v>0.01534840510965955</v>
+        <v>0.02289538894376488</v>
       </c>
       <c r="T21">
-        <v>0.01344187909478679</v>
+        <v>0.02276314628216901</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H22">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I22">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J22">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N22">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O22">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P22">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q22">
-        <v>0.02419138208083334</v>
+        <v>0.01673934924733333</v>
       </c>
       <c r="R22">
-        <v>0.145148292485</v>
+        <v>0.100436095484</v>
       </c>
       <c r="S22">
-        <v>0.00112841294971333</v>
+        <v>0.001255697522922231</v>
       </c>
       <c r="T22">
-        <v>0.0009882453799380296</v>
+        <v>0.001248444674630445</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H23">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I23">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J23">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N23">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O23">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P23">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q23">
-        <v>0.2120810462225</v>
+        <v>0.2394332706645</v>
       </c>
       <c r="R23">
-        <v>0.8483241848899999</v>
+        <v>0.9577330826580001</v>
       </c>
       <c r="S23">
-        <v>0.00989257241056218</v>
+        <v>0.01796101870127818</v>
       </c>
       <c r="T23">
-        <v>0.005775834093906924</v>
+        <v>0.01190485114937843</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H24">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I24">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J24">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N24">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O24">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P24">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q24">
-        <v>0.9233651588291666</v>
+        <v>0.028715871183</v>
       </c>
       <c r="R24">
-        <v>5.540190952974999</v>
+        <v>0.172295227098</v>
       </c>
       <c r="S24">
-        <v>0.0430705942742501</v>
+        <v>0.002154112909663515</v>
       </c>
       <c r="T24">
-        <v>0.03772051341091608</v>
+        <v>0.002141670857455902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0774725</v>
+        <v>0.07186100000000001</v>
       </c>
       <c r="H25">
-        <v>0.154945</v>
+        <v>0.143722</v>
       </c>
       <c r="I25">
-        <v>0.129930262778705</v>
+        <v>0.163486046093657</v>
       </c>
       <c r="J25">
-        <v>0.09337765625668566</v>
+        <v>0.1173389285991289</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N25">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O25">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P25">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q25">
-        <v>0.009810859158333332</v>
+        <v>0.01045845831066667</v>
       </c>
       <c r="R25">
-        <v>0.05886515495</v>
+        <v>0.062750749864</v>
       </c>
       <c r="S25">
-        <v>0.0004576299313980984</v>
+        <v>0.0007845382756669384</v>
       </c>
       <c r="T25">
-        <v>0.0004007847176341086</v>
+        <v>0.0007800068204489092</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H26">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I26">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J26">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N26">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O26">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P26">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q26">
-        <v>1.060879354027666</v>
+        <v>0.2915788110786667</v>
       </c>
       <c r="R26">
-        <v>6.365276124165999</v>
+        <v>1.749472866472</v>
       </c>
       <c r="S26">
-        <v>0.04948497763245998</v>
+        <v>0.02187270158464602</v>
       </c>
       <c r="T26">
-        <v>0.0433381241628245</v>
+        <v>0.021746365915881</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H27">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I27">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J27">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.741764</v>
       </c>
       <c r="O27">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P27">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q27">
-        <v>0.2712325145164444</v>
+        <v>0.05636673243288889</v>
       </c>
       <c r="R27">
-        <v>2.441092630648</v>
+        <v>0.5073005918960001</v>
       </c>
       <c r="S27">
-        <v>0.01265170715509287</v>
+        <v>0.004228334402095967</v>
       </c>
       <c r="T27">
-        <v>0.01662023350696985</v>
+        <v>0.0063058676199766</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H28">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I28">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J28">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N28">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O28">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P28">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q28">
-        <v>0.01994098276511111</v>
+        <v>0.003091433234222223</v>
       </c>
       <c r="R28">
-        <v>0.179468844886</v>
+        <v>0.027822899108</v>
       </c>
       <c r="S28">
-        <v>0.0009301520312884318</v>
+        <v>0.0002319029848254534</v>
       </c>
       <c r="T28">
-        <v>0.001221917624830021</v>
+        <v>0.0003458452865652894</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H29">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I29">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J29">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N29">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O29">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P29">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q29">
-        <v>0.1748186388606666</v>
+        <v>0.044218682541</v>
       </c>
       <c r="R29">
-        <v>1.048911833164</v>
+        <v>0.265312095246</v>
       </c>
       <c r="S29">
-        <v>0.00815445828115492</v>
+        <v>0.003317051894503228</v>
       </c>
       <c r="T29">
-        <v>0.007141539561643656</v>
+        <v>0.003297892762843218</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06386066666666666</v>
+        <v>0.01327133333333333</v>
       </c>
       <c r="H30">
-        <v>0.191582</v>
+        <v>0.039814</v>
       </c>
       <c r="I30">
-        <v>0.1071016580234701</v>
+        <v>0.03019270276029585</v>
       </c>
       <c r="J30">
-        <v>0.115456956603752</v>
+        <v>0.03250533741003964</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N30">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O30">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P30">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q30">
-        <v>0.7611309125122222</v>
+        <v>0.005303264614</v>
       </c>
       <c r="R30">
-        <v>6.850178212609999</v>
+        <v>0.047729381526</v>
       </c>
       <c r="S30">
-        <v>0.03550313806941983</v>
+        <v>0.0003978228867087998</v>
       </c>
       <c r="T30">
-        <v>0.04663959082442237</v>
+        <v>0.0005932876213714624</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.039814</v>
+      </c>
+      <c r="I31">
+        <v>0.03019270276029585</v>
+      </c>
+      <c r="J31">
+        <v>0.03250533741003964</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.06386066666666666</v>
-      </c>
-      <c r="H31">
-        <v>0.191582</v>
-      </c>
-      <c r="I31">
-        <v>0.1071016580234701</v>
-      </c>
-      <c r="J31">
-        <v>0.115456956603752</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N31">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O31">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P31">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q31">
-        <v>0.008087101957777777</v>
+        <v>0.001931474463111111</v>
       </c>
       <c r="R31">
-        <v>0.07278391761999999</v>
+        <v>0.017383270168</v>
       </c>
       <c r="S31">
-        <v>0.0003772248540540643</v>
+        <v>0.0001448890075163788</v>
       </c>
       <c r="T31">
-        <v>0.0004955509230615882</v>
+        <v>0.000216078203402074</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H32">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I32">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J32">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>16.6124065</v>
+        <v>21.970574</v>
       </c>
       <c r="N32">
-        <v>33.224813</v>
+        <v>43.941148</v>
       </c>
       <c r="O32">
-        <v>0.4620374562419557</v>
+        <v>0.7244366878413139</v>
       </c>
       <c r="P32">
-        <v>0.3753617403199085</v>
+        <v>0.669009081233668</v>
       </c>
       <c r="Q32">
-        <v>1.2191679006285</v>
+        <v>0.2893597831046666</v>
       </c>
       <c r="R32">
-        <v>7.315007403770999</v>
+        <v>1.736158698628</v>
       </c>
       <c r="S32">
-        <v>0.05686838570641196</v>
+        <v>0.02170624183229388</v>
       </c>
       <c r="T32">
-        <v>0.04980439071810807</v>
+        <v>0.02158086762702501</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H33">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I33">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J33">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.741764</v>
       </c>
       <c r="O33">
-        <v>0.1181280233058613</v>
+        <v>0.140044912032729</v>
       </c>
       <c r="P33">
-        <v>0.1439517721224062</v>
+        <v>0.1939948366150158</v>
       </c>
       <c r="Q33">
-        <v>0.311701772732</v>
+        <v>0.05593775971155555</v>
       </c>
       <c r="R33">
-        <v>2.805315954588</v>
+        <v>0.503439837404</v>
       </c>
       <c r="S33">
-        <v>0.01453940562900132</v>
+        <v>0.004196155135409999</v>
       </c>
       <c r="T33">
-        <v>0.01910005611450465</v>
+        <v>0.006257877518784733</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H34">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I34">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J34">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.3122576666666667</v>
+        <v>0.2329406666666667</v>
       </c>
       <c r="N34">
-        <v>0.9367730000000001</v>
+        <v>0.6988220000000001</v>
       </c>
       <c r="O34">
-        <v>0.008684758466433821</v>
+        <v>0.007680762688473572</v>
       </c>
       <c r="P34">
-        <v>0.01058331746110058</v>
+        <v>0.01063964610496463</v>
       </c>
       <c r="Q34">
-        <v>0.022916277899</v>
+        <v>0.003067906226888889</v>
       </c>
       <c r="R34">
-        <v>0.206246501091</v>
+        <v>0.027611156042</v>
       </c>
       <c r="S34">
-        <v>0.001068935402452632</v>
+        <v>0.000230138113061699</v>
       </c>
       <c r="T34">
-        <v>0.00140423389308991</v>
+        <v>0.0003432132696408587</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H35">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I35">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J35">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.737501</v>
+        <v>3.3318945</v>
       </c>
       <c r="N35">
-        <v>5.475002</v>
+        <v>6.663789</v>
       </c>
       <c r="O35">
-        <v>0.07613755409246759</v>
+        <v>0.1098627016215731</v>
       </c>
       <c r="P35">
-        <v>0.06185456270212807</v>
+        <v>0.1014569613981188</v>
       </c>
       <c r="Q35">
-        <v>0.200902460889</v>
+        <v>0.04388216119649999</v>
       </c>
       <c r="R35">
-        <v>1.205414765334</v>
+        <v>0.263292967179</v>
       </c>
       <c r="S35">
-        <v>0.009371144556310275</v>
+        <v>0.003291807841556161</v>
       </c>
       <c r="T35">
-        <v>0.008207093258596313</v>
+        <v>0.003272794518327682</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H36">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I36">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J36">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.91861833333333</v>
+        <v>0.399603</v>
       </c>
       <c r="N36">
-        <v>35.755855</v>
+        <v>1.198809</v>
       </c>
       <c r="O36">
-        <v>0.3314900882453166</v>
+        <v>0.01317612702205471</v>
       </c>
       <c r="P36">
-        <v>0.4039565236808497</v>
+        <v>0.01825200624400283</v>
       </c>
       <c r="Q36">
-        <v>0.8746954808649999</v>
+        <v>0.005262904711</v>
       </c>
       <c r="R36">
-        <v>7.872259327785</v>
+        <v>0.047366142399</v>
       </c>
       <c r="S36">
-        <v>0.04080038521014476</v>
+        <v>0.0003947953000640827</v>
       </c>
       <c r="T36">
-        <v>0.05359845284546878</v>
+        <v>0.000588772472195907</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.073389</v>
+        <v>0.01317033333333333</v>
       </c>
       <c r="H37">
-        <v>0.220167</v>
+        <v>0.039511</v>
       </c>
       <c r="I37">
-        <v>0.1230817652078658</v>
+        <v>0.02996292456829379</v>
       </c>
       <c r="J37">
-        <v>0.1326837164481959</v>
+        <v>0.032257959170344</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.1266366666666666</v>
+        <v>0.1455373333333333</v>
       </c>
       <c r="N37">
-        <v>0.37991</v>
+        <v>0.436612</v>
       </c>
       <c r="O37">
-        <v>0.003522119647964738</v>
+        <v>0.004798808793855693</v>
       </c>
       <c r="P37">
-        <v>0.004292083713606949</v>
+        <v>0.00664746840423</v>
       </c>
       <c r="Q37">
-        <v>0.009293738329999999</v>
+        <v>0.001916775192444444</v>
       </c>
       <c r="R37">
-        <v>0.08364364497</v>
+        <v>0.017250976732</v>
       </c>
       <c r="S37">
-        <v>0.0004335087035448068</v>
+        <v>0.000143786345907963</v>
       </c>
       <c r="T37">
-        <v>0.0005694896184281439</v>
+        <v>0.0002144337643698031</v>
       </c>
     </row>
   </sheetData>
